--- a/NewDevelopment/ProductBacklog.xlsx
+++ b/NewDevelopment/ProductBacklog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eBikeMVP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Micro2Move\NewDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="183">
   <si>
     <t>As a</t>
   </si>
@@ -508,6 +508,66 @@
   </si>
   <si>
     <t>Story #</t>
+  </si>
+  <si>
+    <t>Marketplace Features</t>
+  </si>
+  <si>
+    <t>to put my bike(s) on rent</t>
+  </si>
+  <si>
+    <t>I should be able to register and validate myself in Micro2Move</t>
+  </si>
+  <si>
+    <t>I should be able to put a start date and end date for the rental</t>
+  </si>
+  <si>
+    <t>I should be able to put a price per week for the rental</t>
+  </si>
+  <si>
+    <t>I should be able to select a bike category</t>
+  </si>
+  <si>
+    <t>Renters can view and rent my bike(s) details</t>
+  </si>
+  <si>
+    <t>For of each  my bike(s), I should be able to upload as many image(s) (classifying as Front, Back, Left, Right, other angles) with at least 1 image mandatory.</t>
+  </si>
+  <si>
+    <t>I must be able to view the list of "features" that need to be working fine.</t>
+  </si>
+  <si>
+    <t>I must be able to check (radio button) that all the features are working fine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I must be able to view the future status (rented, waiting, booked) of each bike in the list of bikes that I have put on rent </t>
+  </si>
+  <si>
+    <t>create a booking calendar for each bike</t>
+  </si>
+  <si>
+    <t>The availability of booking for each bike is known</t>
+  </si>
+  <si>
+    <t>I must be able to "Save" partially finished bike info and edit the same later.</t>
+  </si>
+  <si>
+    <t>I must be able to list each bike to the marketplace for rental, once the details are entered</t>
+  </si>
+  <si>
+    <t>I must be able to click on each bike in the list and open the same in an Edit mode and update each field, remove a photo or upload a new photo.</t>
+  </si>
+  <si>
+    <t>I should be able to put a name (identity) to each bike.</t>
+  </si>
+  <si>
+    <t>Price comparison with other apps of similar ebike rentals</t>
+  </si>
+  <si>
+    <t>I should be able to upload one main image for each of my bikes</t>
+  </si>
+  <si>
+    <t>I must be able to view the list of bikes that I have put on rent along with current status of each(rented, waiting, booked)</t>
   </si>
 </sst>
 </file>
@@ -544,7 +604,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,6 +629,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -582,18 +648,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -874,10 +942,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C102" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -902,11 +973,11 @@
       <c r="C1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
@@ -929,55 +1000,55 @@
       <c r="B3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -985,53 +1056,53 @@
       <c r="B8">
         <v>1.2</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1039,53 +1110,53 @@
       <c r="B13">
         <v>1.3</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1093,44 +1164,44 @@
       <c r="B18">
         <v>1.4</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1138,53 +1209,53 @@
       <c r="B22">
         <v>1.5</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1192,53 +1263,53 @@
       <c r="B27">
         <v>1.6</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6" t="s">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1249,55 +1320,55 @@
       <c r="B32">
         <v>2.1</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6" t="s">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1305,53 +1376,53 @@
       <c r="B37">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4" t="s">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4" t="s">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4" t="s">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4" t="s">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1359,53 +1430,53 @@
       <c r="B42">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4" t="s">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4" t="s">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4" t="s">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4" t="s">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4" t="s">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1416,46 +1487,46 @@
       <c r="B47">
         <v>3.1</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4" t="s">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4" t="s">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4" t="s">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1463,44 +1534,44 @@
       <c r="B51">
         <v>3.2</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4" t="s">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4" t="s">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4" t="s">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4" t="s">
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1508,44 +1579,44 @@
       <c r="B55">
         <v>3.3</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4" t="s">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4" t="s">
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4" t="s">
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4" t="s">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1762,44 +1833,44 @@
       <c r="B84">
         <v>5.3</v>
       </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6" t="s">
+      <c r="C84" s="5"/>
+      <c r="D84" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="F84" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="G84" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6" t="s">
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6" t="s">
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6" t="s">
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1845,44 +1916,44 @@
       <c r="B92">
         <v>6.2</v>
       </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6" t="s">
+      <c r="C92" s="5"/>
+      <c r="D92" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F92" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="G92" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6" t="s">
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6" t="s">
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6" t="s">
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1903,19 +1974,121 @@
         <v>155</v>
       </c>
     </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G97" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G98" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G99" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>7</v>
+      </c>
+      <c r="B100">
+        <v>7.1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>163</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" t="s">
+        <v>164</v>
+      </c>
+      <c r="F100" t="s">
+        <v>169</v>
+      </c>
+      <c r="G100" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G101" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G102" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G103" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G104" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G105" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G106" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G107" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G108" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G109" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G110" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G111" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G112" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" spans="4:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G113" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="114" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" t="s">
+        <v>174</v>
+      </c>
+      <c r="F114" t="s">
+        <v>175</v>
+      </c>
+      <c r="G114" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/NewDevelopment/ProductBacklog.xlsx
+++ b/NewDevelopment/ProductBacklog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="201">
   <si>
     <t>As a</t>
   </si>
@@ -585,16 +585,7 @@
     <t>I can start renting out my bike(s)</t>
   </si>
   <si>
-    <t>I must be able to visit details Terms and Conditions link and navigate back</t>
-  </si>
-  <si>
-    <t>I must be able to check Terms and Conditions radio button</t>
-  </si>
-  <si>
     <t>I must be able to upload a copy of my government photo ID</t>
-  </si>
-  <si>
-    <t>I must be able to click my selfie holding the same photo ID (without dark glasses or hats)</t>
   </si>
   <si>
     <t>I must be able to validate my government photo ID against my selfie</t>
@@ -622,17 +613,157 @@
     <t>On User Registration Page I must be able to enter my Full Name (as displayed on my government Id), Birth date, Email.</t>
   </si>
   <si>
-    <t>unloggedin bike owner/ renter</t>
-  </si>
-  <si>
     <t>Unregistered bike owner/ renter</t>
+  </si>
+  <si>
+    <t>unlogged-in bike owner/ renter</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I must be able to visit details </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Terms and Conditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> link and navigate back by clicking </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I must be able to check </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I accept Terms and Conditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> radio button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I must be able to click my selfie </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>holding the same photo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID (without dark glasses or hats)</t>
+    </r>
+  </si>
+  <si>
+    <t>I can log in as a registered logged in bike owner</t>
+  </si>
+  <si>
+    <t>I must be landin on the Owner-List-Bikes page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fill up all fields in the User Registration OR Login page with valid information and click on the respective </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Continue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,6 +796,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -708,7 +846,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -716,22 +854,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -743,10 +890,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1029,26 +1191,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G121" sqref="G121"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.73046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.46484375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="46.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.796875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.06640625" style="3"/>
+    <col min="1" max="1" width="5.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.46484375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="46.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.796875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
@@ -1061,543 +1223,595 @@
       <c r="C1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D2" s="4" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E6" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="B33" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G33" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B38" s="2">
         <v>1.2</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G38" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B13" s="3">
+    <row r="43" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B43" s="2">
         <v>1.3</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E43" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F43" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G43" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B18" s="3">
+    <row r="48" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B48" s="2">
         <v>1.4</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E48" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G48" s="5" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B22" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B27" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="3">
-        <v>2</v>
-      </c>
-      <c r="B32" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B37" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B42" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="3">
-        <v>3</v>
-      </c>
-      <c r="B47" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
@@ -1606,7 +1820,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
@@ -1615,88 +1829,88 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B51" s="3">
-        <v>3.2</v>
-      </c>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C51" s="5"/>
-      <c r="D51" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
       <c r="G51" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5" t="s">
-        <v>106</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B52" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5" t="s">
-        <v>107</v>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5" t="s">
-        <v>108</v>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B55" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>109</v>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B57" s="2">
+        <v>1.6</v>
+      </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
+      <c r="D57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="G57" s="5" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
@@ -1705,603 +1919,710 @@
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62" s="2">
+        <v>2</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B67" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B72" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A77" s="2">
+        <v>3</v>
+      </c>
+      <c r="B77" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B81" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B85" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" s="3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A89" s="2">
         <v>4</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B89" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D89" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E89" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F89" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G89" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G60" s="3" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G90" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G61" s="3" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G91" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G62" s="3" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G92" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G63" s="3" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G93" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B64" s="3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B94" s="2">
         <v>4.2</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D94" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E94" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F94" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G94" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G65" s="3" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G95" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G66" s="3" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G96" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G67" s="3" t="s">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G97" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B68" s="3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B98" s="2">
         <v>4.3</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D98" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E98" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F98" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G98" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G69" s="3" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G99" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G70" s="3" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G100" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G71" s="3" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G101" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B72" s="3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B102" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D102" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E102" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F102" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G102" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G73" s="3" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G103" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G74" s="3" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G104" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G75" s="3" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G105" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A76" s="3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A106" s="2">
         <v>5</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B106" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C106" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D106" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E106" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F106" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G106" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G77" s="3" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G107" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G78" s="3" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G108" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G79" s="3" t="s">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G109" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B80" s="3">
+    <row r="110" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B110" s="2">
         <v>5.2</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D110" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E110" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F110" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G110" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G81" s="3" t="s">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G111" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G82" s="3" t="s">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G112" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G83" s="3" t="s">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G113" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B84" s="3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B114" s="2">
         <v>5.3</v>
       </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7" t="s">
+      <c r="C114" s="5"/>
+      <c r="D114" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E114" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F114" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="G114" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7" t="s">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7" t="s">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7" t="s">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A88" s="3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A118" s="2">
         <v>6</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B118" s="2">
         <v>6.1</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C118" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D118" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E118" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F118" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G118" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G89" s="3" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G119" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G90" s="3" t="s">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G120" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G91" s="3" t="s">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G121" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B92" s="3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B122" s="2">
         <v>6.2</v>
       </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7" t="s">
+      <c r="C122" s="5"/>
+      <c r="D122" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E122" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F122" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G92" s="7" t="s">
+      <c r="G122" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7" t="s">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7" t="s">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7" t="s">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B96" s="3">
+    <row r="126" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B126" s="2">
         <v>6.3</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D126" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E126" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="F126" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="G126" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G97" s="3" t="s">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G127" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G98" s="3" t="s">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G128" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G99" s="3" t="s">
+    <row r="129" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G129" s="2" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A100" s="5">
-        <v>7</v>
-      </c>
-      <c r="B100" s="5">
-        <v>7.1</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="57" x14ac:dyDescent="0.45">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G107" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="D112" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="113" spans="4:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="D113" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="114" spans="4:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D114" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="115" spans="4:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="D115" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="116" spans="4:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="G116" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="117" spans="4:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="G117" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="118" spans="4:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="G118" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="119" spans="4:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="G119" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="120" spans="4:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="G120" s="5" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/NewDevelopment/ProductBacklog.xlsx
+++ b/NewDevelopment/ProductBacklog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Micro2Move\NewDevelopment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Micro2Move\NewDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E249C3-0B42-4F30-92A7-243B4DB01008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7305"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="247">
   <si>
     <t>As a</t>
   </si>
@@ -758,11 +759,149 @@
       <t xml:space="preserve"> button</t>
     </r>
   </si>
+  <si>
+    <t>view a map or list of available bikes based on my current location</t>
+  </si>
+  <si>
+    <t>I can find a bike nearby to rent.</t>
+  </si>
+  <si>
+    <t>Must see a map view with pins for available bikes.</t>
+  </si>
+  <si>
+    <t>Must be able to switch to a "List View" sorted by distance.</t>
+  </si>
+  <si>
+    <t>Must be able to set a search radius (e.g., 5km, 10km).</t>
+  </si>
+  <si>
+    <t>filter search results by date, price, and bike type</t>
+  </si>
+  <si>
+    <t>I can find a vehicle that fits my budget and schedule.</t>
+  </si>
+  <si>
+    <t>Must be able to select "Pick-up Date/Time" and "Drop-off Date/Time".</t>
+  </si>
+  <si>
+    <t>Must be able to filter by Price Range (Min/Max).</t>
+  </si>
+  <si>
+    <t>Must be able to filter by Category (e.g., E-bike, Mountain, Road).</t>
+  </si>
+  <si>
+    <t>click on a specific bike listing to view details</t>
+  </si>
+  <si>
+    <t>I can assess if the bike is in good condition and safe.</t>
+  </si>
+  <si>
+    <t>Must display the "Main Image" and additional angles uploaded by the owner (ref Story 1.6).</t>
+  </si>
+  <si>
+    <t>Must display features (e.g., GPS, Lock type, Gears).</t>
+  </si>
+  <si>
+    <t>Must show the Owner's name and verification status.</t>
+  </si>
+  <si>
+    <t>Must show the total price breakdown for the selected duration.</t>
+  </si>
+  <si>
+    <t>proceed to "Book" a selected bike</t>
+  </si>
+  <si>
+    <t>I can secure the bike for my requested dates.</t>
+  </si>
+  <si>
+    <t>Must be presented with a summary screen (Bike, Dates, Total Cost).</t>
+  </si>
+  <si>
+    <t>Must be prompted to complete Identity Verification.</t>
+  </si>
+  <si>
+    <t>OPTIONALLY, Must be able to add a promo code.</t>
+  </si>
+  <si>
+    <t>add a payment method and authorize the charge</t>
+  </si>
+  <si>
+    <t>I can pay for the rental and security deposit.</t>
+  </si>
+  <si>
+    <t>Must support credit/debit card entry.</t>
+  </si>
+  <si>
+    <t>Must explicitly show "Rental Fee" vs "Refundable Security Deposit".</t>
+  </si>
+  <si>
+    <t>Must receive a "Booking Pending" or "Booking Confirmed" notification upon success.</t>
+  </si>
+  <si>
+    <t>contact the bike owner via in-app chat/Phone Number</t>
+  </si>
+  <si>
+    <t>I can coordinate the physical handover of the key/bike.</t>
+  </si>
+  <si>
+    <t>Must have a "Chat with Owner" button on the booking confirmation page.</t>
+  </si>
+  <si>
+    <t>Chat should only be enabled after a booking is confirmed.</t>
+  </si>
+  <si>
+    <t>Must be able to share current live location for meetup.</t>
+  </si>
+  <si>
+    <t>verify the bike condition at pick-up (Start Rental)</t>
+  </si>
+  <si>
+    <t>I am not held liable for pre-existing damage.</t>
+  </si>
+  <si>
+    <t>Must be prompted to "Start Rental" when meeting the owner.</t>
+  </si>
+  <si>
+    <t>Must be able to upload photos of the bike's current condition (scratches/dents) before unlocking.</t>
+  </si>
+  <si>
+    <t>Must be able to mark a checklist of safety items (Brakes working, Tires inflated).</t>
+  </si>
+  <si>
+    <t>extend my rental duration</t>
+  </si>
+  <si>
+    <t>I can keep the bike longer if I need to.</t>
+  </si>
+  <si>
+    <t>Must be able to select "Extend Rental" from the active booking screen.</t>
+  </si>
+  <si>
+    <t>System must check the bike's availability calendar (ref Story 1.7) to ensure it isn't booked by someone else.</t>
+  </si>
+  <si>
+    <t>Must calculate and charge the additional fee immediately.</t>
+  </si>
+  <si>
+    <t>rate and review the bike and owner</t>
+  </si>
+  <si>
+    <t>I can help other renters make informed decisions.</t>
+  </si>
+  <si>
+    <t>Must trigger a "Rate your Ride" popup after the rental is marked complete.</t>
+  </si>
+  <si>
+    <t>Must be able to give a star rating (1-5) and a text review.</t>
+  </si>
+  <si>
+    <t>Must be able to report safety issues privately to admin.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -873,7 +1012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -890,9 +1029,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -905,11 +1041,11 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1190,30 +1326,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.46484375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.1328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.46484375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.46484375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="46.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.796875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.06640625" style="2"/>
+    <col min="1" max="1" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="46.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.77734375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
@@ -1223,792 +1359,878 @@
       <c r="C1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="9">
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7">
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6">
         <v>1.2</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6">
         <v>1.3</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7">
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6">
         <v>1.4</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="9" t="s">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="9" t="s">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="9" t="s">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="9" t="s">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="9" t="s">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7">
+    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6">
         <v>1.5</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6">
         <v>1.6</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9" t="s">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9" t="s">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9" t="s">
+    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9" t="s">
+    <row r="18" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="11" t="s">
+    <row r="19" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="11" t="s">
+    <row r="20" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9">
+    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8">
         <v>1.7</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9" t="s">
+    <row r="22" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9" t="s">
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="11" t="s">
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="2">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2">
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B38" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B43" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B48" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B52" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E31" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B57" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>2</v>
       </c>
       <c r="B62" s="2">
         <v>2.1</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B67" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -2017,611 +2239,931 @@
         <v>7</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B72" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A77" s="2">
-        <v>3</v>
-      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B77" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+        <v>2.4</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B81" s="2">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B86" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>3</v>
+      </c>
+      <c r="B91" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B96" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B101" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>4</v>
+      </c>
+      <c r="B106" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B110" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B85" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3" t="s">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B114" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E114" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F114" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G114" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3" t="s">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3" t="s">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3" t="s">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A89" s="2">
+    <row r="118" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>5</v>
+      </c>
+      <c r="B118" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B89" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="E118" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G119" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G120" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G121" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G122" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B123" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G124" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G125" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G126" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B127" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G128" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G129" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G130" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B131" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G132" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G133" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G134" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>6</v>
+      </c>
+      <c r="B135" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G90" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G91" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G92" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G93" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B94" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="E135" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G136" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G137" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G138" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B139" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G140" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G141" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G142" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B143" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G95" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G96" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G97" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B98" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G99" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G100" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G101" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B102" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="E143" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>7</v>
+      </c>
+      <c r="B147" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G148" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G149" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G150" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B151" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G103" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G104" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G105" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A106" s="2">
-        <v>5</v>
-      </c>
-      <c r="B106" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G107" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G108" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G109" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B110" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G111" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G112" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G113" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B114" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A118" s="2">
-        <v>6</v>
-      </c>
-      <c r="B118" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G119" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G120" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G121" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B122" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E122" s="5" t="s">
+      <c r="E151" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F122" s="5" t="s">
+      <c r="F151" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G122" s="5" t="s">
+      <c r="G151" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5" t="s">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5" t="s">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5" t="s">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B126" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="D126" s="2" t="s">
+    <row r="155" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B155" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E155" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F126" s="2" t="s">
+      <c r="F155" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="G155" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G127" s="2" t="s">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G156" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G128" s="2" t="s">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G157" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="129" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G129" s="2" t="s">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G158" s="2" t="s">
         <v>157</v>
       </c>
     </row>
